--- a/leg_analysis/joint_forces/joint_forces.xlsx
+++ b/leg_analysis/joint_forces/joint_forces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Dietsche\dev\matlab\leg_analysis\joint_forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7FAD81C-5E1E-4381-8B4F-2920595A750F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{018C09AC-9A7D-42EC-9A87-7229BB3D7BCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="14350" xr2:uid="{5193D1C1-4C08-4ADD-A622-976E45045F4C}"/>
   </bookViews>

--- a/leg_analysis/joint_forces/joint_forces.xlsx
+++ b/leg_analysis/joint_forces/joint_forces.xlsx
@@ -1,99 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Dietsche\dev\matlab\leg_analysis\joint_forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{018C09AC-9A7D-42EC-9A87-7229BB3D7BCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89014465-E457-4FD1-BC92-2FCD2ED7700C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="14350" xr2:uid="{5193D1C1-4C08-4ADD-A622-976E45045F4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="14350" xr2:uid="{CF6F0216-1262-4AB1-8F73-82BFF1CDFBA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Joint Forces [N]</t>
   </si>
   <si>
-    <t>F_F_x</t>
-  </si>
-  <si>
-    <t>F_F_y</t>
-  </si>
-  <si>
-    <t>F_H_x</t>
-  </si>
-  <si>
-    <t>F_H_y</t>
-  </si>
-  <si>
-    <t>F_D_x</t>
-  </si>
-  <si>
-    <t>F_D_y</t>
-  </si>
-  <si>
-    <t>F_G_x</t>
-  </si>
-  <si>
-    <t>F_G_y</t>
-  </si>
-  <si>
-    <t>F_B_x</t>
-  </si>
-  <si>
-    <t>F_B_y</t>
-  </si>
-  <si>
-    <t>F_C_x</t>
-  </si>
-  <si>
-    <t>F_C_y</t>
-  </si>
-  <si>
-    <t>F_L_x</t>
-  </si>
-  <si>
-    <t>F_L_y</t>
-  </si>
-  <si>
-    <t>F_K_x</t>
-  </si>
-  <si>
-    <t>F_K_y</t>
-  </si>
-  <si>
-    <t>F_M_x</t>
-  </si>
-  <si>
-    <t>F_M_y</t>
-  </si>
-  <si>
-    <t>F_A_x</t>
-  </si>
-  <si>
-    <t>F_A_y</t>
-  </si>
-  <si>
-    <t>F_f_x</t>
-  </si>
-  <si>
-    <t>F_f_y</t>
+    <t>F_F_x_crank</t>
+  </si>
+  <si>
+    <t>F_F_y_crank</t>
+  </si>
+  <si>
+    <t>F_B_x_crank</t>
+  </si>
+  <si>
+    <t>F_B_y_crank</t>
+  </si>
+  <si>
+    <t>F_D_x_crank</t>
+  </si>
+  <si>
+    <t>F_D_y_crank</t>
+  </si>
+  <si>
+    <t>F_G_x_shin</t>
+  </si>
+  <si>
+    <t>F_G_y_shin</t>
+  </si>
+  <si>
+    <t>F_H_x_shin</t>
+  </si>
+  <si>
+    <t>F_H_y_shin</t>
+  </si>
+  <si>
+    <t>F_C_x_shin</t>
+  </si>
+  <si>
+    <t>F_C_y_shin</t>
+  </si>
+  <si>
+    <t>F_L_x_shin</t>
+  </si>
+  <si>
+    <t>F_L_y_shin</t>
+  </si>
+  <si>
+    <t>F_A_x_rod</t>
+  </si>
+  <si>
+    <t>F_A_y_rod</t>
+  </si>
+  <si>
+    <t>F_K_x_rod</t>
+  </si>
+  <si>
+    <t>F_K_y_rod</t>
+  </si>
+  <si>
+    <t>F_C_x_rod</t>
+  </si>
+  <si>
+    <t>F_C_y_rod</t>
+  </si>
+  <si>
+    <t>F_M_x_foot</t>
+  </si>
+  <si>
+    <t>F_M_y_foot</t>
+  </si>
+  <si>
+    <t>F_L_x_foot</t>
+  </si>
+  <si>
+    <t>F_L_y_foot</t>
+  </si>
+  <si>
+    <t>F_f_x_foot</t>
+  </si>
+  <si>
+    <t>F_f_y_foot</t>
   </si>
   <si>
     <t>Max abs. Forces [N]</t>
@@ -480,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B6CF26-3570-474F-B36D-0B49590AA225}">
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1332981-E949-4F95-A186-D879AC01D4BF}">
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B36"/>
+      <selection activeCell="B30" sqref="B30:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,34 +516,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-738.53082588802533</v>
+        <v>-737.32665098319717</v>
       </c>
       <c r="C2">
-        <v>-562.59389835049797</v>
+        <v>-573.29400105610273</v>
       </c>
       <c r="D2">
-        <v>-390.03530487947972</v>
+        <v>-408.26946562951667</v>
       </c>
       <c r="E2">
-        <v>-286.31362341927769</v>
+        <v>-309.39744776459889</v>
       </c>
       <c r="F2">
-        <v>-221.56955464453995</v>
+        <v>-248.21149452026086</v>
       </c>
       <c r="G2">
-        <v>-178.81253744398819</v>
+        <v>-208.340595391482</v>
       </c>
       <c r="H2">
-        <v>-149.13115697362156</v>
+        <v>-181.13367005158636</v>
       </c>
       <c r="I2">
-        <v>-127.55097125244832</v>
+        <v>-161.65806376302959</v>
       </c>
       <c r="J2">
-        <v>-111.08822341255873</v>
+        <v>-146.81468114501519</v>
       </c>
       <c r="K2">
-        <v>-97.798712382682496</v>
+        <v>-134.37337990442003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -534,34 +551,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35.36421505510156</v>
+        <v>-55.025614428325866</v>
       </c>
       <c r="C3">
-        <v>122.39689093112135</v>
+        <v>-53.16842788629998</v>
       </c>
       <c r="D3">
-        <v>136.40614489192666</v>
+        <v>-63.641329741724704</v>
       </c>
       <c r="E3">
-        <v>137.46607628450818</v>
+        <v>-71.733063515274964</v>
       </c>
       <c r="F3">
-        <v>136.75201045979435</v>
+        <v>-78.646258005031669</v>
       </c>
       <c r="G3">
-        <v>137.03461421224733</v>
+        <v>-85.712340718124835</v>
       </c>
       <c r="H3">
-        <v>139.15377974042121</v>
+        <v>-93.778835405328323</v>
       </c>
       <c r="I3">
-        <v>143.38720411272789</v>
+        <v>-103.42055400691027</v>
       </c>
       <c r="J3">
-        <v>149.81012978296312</v>
+        <v>-115.01790194067333</v>
       </c>
       <c r="K3">
-        <v>158.34966828738081</v>
+        <v>-128.77499898464995</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -569,34 +586,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>738.53082588802533</v>
+        <v>-233.4659498258986</v>
       </c>
       <c r="C4">
-        <v>562.59389835049797</v>
+        <v>-192.34547562256873</v>
       </c>
       <c r="D4">
-        <v>390.03530487947972</v>
+        <v>-153.40983400977206</v>
       </c>
       <c r="E4">
-        <v>286.31362341927769</v>
+        <v>-116.35382518829135</v>
       </c>
       <c r="F4">
-        <v>221.56955464453995</v>
+        <v>-81.051308158332716</v>
       </c>
       <c r="G4">
-        <v>178.81253744398819</v>
+        <v>-47.094402642997565</v>
       </c>
       <c r="H4">
-        <v>149.13115697362156</v>
+        <v>-14.351089343031092</v>
       </c>
       <c r="I4">
-        <v>127.55097125244832</v>
+        <v>17.030224299180688</v>
       </c>
       <c r="J4">
-        <v>111.08822341255873</v>
+        <v>46.614459798804575</v>
       </c>
       <c r="K4">
-        <v>97.798712382682496</v>
+        <v>73.68493566593294</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -604,34 +621,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-35.36421505510156</v>
+        <v>-71.663507403651792</v>
       </c>
       <c r="C5">
-        <v>-122.39689093112135</v>
+        <v>-118.00973648230647</v>
       </c>
       <c r="D5">
-        <v>-136.40614489192666</v>
+        <v>-141.06701340697711</v>
       </c>
       <c r="E5">
-        <v>-137.46607628450818</v>
+        <v>-154.14984615186913</v>
       </c>
       <c r="F5">
-        <v>-136.75201045979435</v>
+        <v>-161.08894163100132</v>
       </c>
       <c r="G5">
-        <v>-137.03461421224733</v>
+        <v>-162.96585715789817</v>
       </c>
       <c r="H5">
-        <v>-139.15377974042121</v>
+        <v>-160.03060375820519</v>
       </c>
       <c r="I5">
-        <v>-143.38720411272789</v>
+        <v>-152.22927184726134</v>
       </c>
       <c r="J5">
-        <v>-149.81012978296312</v>
+        <v>-139.44144981239907</v>
       </c>
       <c r="K5">
-        <v>-158.34966828738081</v>
+        <v>-121.60736958532596</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -639,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>978.99719650209624</v>
+        <v>970.79260080909569</v>
       </c>
       <c r="C6">
-        <v>781.59227353548454</v>
+        <v>765.63947667867137</v>
       </c>
       <c r="D6">
-        <v>591.83936155402682</v>
+        <v>561.67929963928873</v>
       </c>
       <c r="E6">
-        <v>473.5007887657361</v>
+        <v>425.7512729528903</v>
       </c>
       <c r="F6">
-        <v>396.52234523006285</v>
+        <v>329.26280267859363</v>
       </c>
       <c r="G6">
-        <v>343.36909670969123</v>
+        <v>255.43499803447961</v>
       </c>
       <c r="H6">
-        <v>304.69619305917718</v>
+        <v>195.48475939461747</v>
       </c>
       <c r="I6">
-        <v>275.20936436465342</v>
+        <v>144.62783946384889</v>
       </c>
       <c r="J6">
-        <v>251.7156131932191</v>
+        <v>100.20022134621055</v>
       </c>
       <c r="K6">
-        <v>232.13484529991902</v>
+        <v>60.688444238487108</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -674,34 +691,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.2730060691523555</v>
+        <v>126.68912183197766</v>
       </c>
       <c r="C7">
-        <v>-67.965359963937928</v>
+        <v>171.17816436860645</v>
       </c>
       <c r="D7">
-        <v>-84.352305915667998</v>
+        <v>204.7083431487018</v>
       </c>
       <c r="E7">
-        <v>-89.912392577038574</v>
+        <v>225.88290966714413</v>
       </c>
       <c r="F7">
-        <v>-93.042941191376457</v>
+        <v>239.73519963603303</v>
       </c>
       <c r="G7">
-        <v>-95.841263266464608</v>
+        <v>248.67819787602303</v>
       </c>
       <c r="H7">
-        <v>-98.963389691964096</v>
+        <v>253.80943916353351</v>
       </c>
       <c r="I7">
-        <v>-102.63455155673718</v>
+        <v>255.64982585417161</v>
       </c>
       <c r="J7">
-        <v>-106.90601539289115</v>
+        <v>254.45935175307233</v>
       </c>
       <c r="K7">
-        <v>-111.74896577768357</v>
+        <v>250.38236856997594</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -709,34 +726,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-978.99719650209624</v>
+        <v>-978.55925722492395</v>
       </c>
       <c r="C8">
-        <v>-781.59227353548454</v>
+        <v>-781.03753964119346</v>
       </c>
       <c r="D8">
-        <v>-591.83936155402682</v>
+        <v>-588.18420612010607</v>
       </c>
       <c r="E8">
-        <v>-473.5007887657361</v>
+        <v>-466.01639684952937</v>
       </c>
       <c r="F8">
-        <v>-396.52234523006285</v>
+        <v>-384.70041002383329</v>
       </c>
       <c r="G8">
-        <v>-343.36909670969123</v>
+        <v>-326.70268312002287</v>
       </c>
       <c r="H8">
-        <v>-304.69619305917718</v>
+        <v>-282.63296504953877</v>
       </c>
       <c r="I8">
-        <v>-275.20936436465342</v>
+        <v>-247.18187350085896</v>
       </c>
       <c r="J8">
-        <v>-251.7156131932191</v>
+        <v>-217.15393786368844</v>
       </c>
       <c r="K8">
-        <v>-232.13484529991902</v>
+        <v>-190.51351358287181</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -744,34 +761,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-7.2730060691523555</v>
+        <v>-30.169313476629842</v>
       </c>
       <c r="C9">
-        <v>67.965359963937928</v>
+        <v>74.068440490040047</v>
       </c>
       <c r="D9">
-        <v>84.352305915667998</v>
+        <v>106.90407414513741</v>
       </c>
       <c r="E9">
-        <v>89.912392577038574</v>
+        <v>122.946952658794</v>
       </c>
       <c r="F9">
-        <v>93.042941191376457</v>
+        <v>133.76305057745054</v>
       </c>
       <c r="G9">
-        <v>95.841263266464608</v>
+        <v>142.66478599121453</v>
       </c>
       <c r="H9">
-        <v>98.963389691964096</v>
+        <v>150.83809078407583</v>
       </c>
       <c r="I9">
-        <v>102.63455155673718</v>
+        <v>158.6668422193323</v>
       </c>
       <c r="J9">
-        <v>106.90601539289115</v>
+        <v>166.23421225101865</v>
       </c>
       <c r="K9">
-        <v>111.74896577768357</v>
+        <v>173.43303865500411</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -779,34 +796,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-240.46637061407097</v>
+        <v>739.15593678562414</v>
       </c>
       <c r="C10">
-        <v>-218.99837518498657</v>
+        <v>561.62067137980762</v>
       </c>
       <c r="D10">
-        <v>-201.80405667454707</v>
+        <v>384.5386047527719</v>
       </c>
       <c r="E10">
-        <v>-187.1871653464583</v>
+        <v>275.95154216108921</v>
       </c>
       <c r="F10">
-        <v>-174.95279058552282</v>
+        <v>206.15149156381213</v>
       </c>
       <c r="G10">
-        <v>-164.55655926570302</v>
+        <v>158.01629630984519</v>
       </c>
       <c r="H10">
-        <v>-155.56503608555559</v>
+        <v>122.43173375540505</v>
       </c>
       <c r="I10">
-        <v>-147.65839311220512</v>
+        <v>94.239525236139556</v>
       </c>
       <c r="J10">
-        <v>-140.62738978066042</v>
+        <v>70.272149736349306</v>
       </c>
       <c r="K10">
-        <v>-134.33613291723651</v>
+        <v>48.462120657746169</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -814,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-42.637221124253912</v>
+        <v>-18.080641799413392</v>
       </c>
       <c r="C11">
-        <v>-54.431530967183427</v>
+        <v>-126.78767625329128</v>
       </c>
       <c r="D11">
-        <v>-52.053838976258696</v>
+        <v>-151.20924863082112</v>
       </c>
       <c r="E11">
-        <v>-47.553683707469631</v>
+        <v>-157.23599926050892</v>
       </c>
       <c r="F11">
-        <v>-43.709069268417927</v>
+        <v>-159.04635310559925</v>
       </c>
       <c r="G11">
-        <v>-41.193350945782747</v>
+        <v>-160.57166356482813</v>
       </c>
       <c r="H11">
-        <v>-40.190390048457132</v>
+        <v>-163.13904182010577</v>
       </c>
       <c r="I11">
-        <v>-40.752652555990693</v>
+        <v>-167.17671026185138</v>
       </c>
       <c r="J11">
-        <v>-42.904114390071925</v>
+        <v>-172.75848268024038</v>
       </c>
       <c r="K11">
-        <v>-46.600702509697264</v>
+        <v>-179.69593332011783</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -849,34 +866,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>150.64973475141016</v>
+        <v>152.06449066920666</v>
       </c>
       <c r="C12">
-        <v>58.979511544773146</v>
+        <v>57.840936863649461</v>
       </c>
       <c r="D12">
-        <v>25.788519017011104</v>
+        <v>18.826555199533082</v>
       </c>
       <c r="E12">
-        <v>6.6173909205486661</v>
+        <v>-7.9793669773754754</v>
       </c>
       <c r="F12">
-        <v>-7.8182990478060077</v>
+        <v>-31.857794670917059</v>
       </c>
       <c r="G12">
-        <v>-20.540300729107916</v>
+        <v>-56.056747567733609</v>
       </c>
       <c r="H12">
-        <v>-32.93683121447912</v>
+        <v>-82.357781589993863</v>
       </c>
       <c r="I12">
-        <v>-45.777384759484164</v>
+        <v>-112.02266284815559</v>
       </c>
       <c r="J12">
-        <v>-59.543371495221706</v>
+        <v>-146.22719358947714</v>
       </c>
       <c r="K12">
-        <v>-74.581121048118277</v>
+        <v>-186.2434006485735</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -884,34 +901,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-62.248739962796975</v>
+        <v>-58.708081940571986</v>
       </c>
       <c r="C13">
-        <v>-145.53192814272617</v>
+        <v>-145.98818758288274</v>
       </c>
       <c r="D13">
-        <v>-181.71640690216054</v>
+        <v>-182.56905835831341</v>
       </c>
       <c r="E13">
-        <v>-207.59300030597717</v>
+        <v>-207.54511158124919</v>
       </c>
       <c r="F13">
-        <v>-231.63509240631734</v>
+        <v>-229.56703324473611</v>
       </c>
       <c r="G13">
-        <v>-256.80671983116389</v>
+        <v>-251.45424306742467</v>
       </c>
       <c r="H13">
-        <v>-284.86539233385878</v>
+        <v>-274.68222077802784</v>
       </c>
       <c r="I13">
-        <v>-317.26656774368314</v>
+        <v>-300.34075143357319</v>
       </c>
       <c r="J13">
-        <v>-355.5487973513205</v>
+        <v>-329.51171184334845</v>
       </c>
       <c r="K13">
-        <v>-401.57831698107725</v>
+        <v>-363.51187601095455</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -919,34 +936,34 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>89.816635862660846</v>
+        <v>87.338829770093227</v>
       </c>
       <c r="C14">
-        <v>160.01886364021345</v>
+        <v>161.57593139773635</v>
       </c>
       <c r="D14">
-        <v>176.01553765753596</v>
+        <v>184.81904616780113</v>
       </c>
       <c r="E14">
-        <v>180.56977442590963</v>
+        <v>198.04422166581543</v>
       </c>
       <c r="F14">
-        <v>182.77108963332884</v>
+        <v>210.40671313093816</v>
       </c>
       <c r="G14">
-        <v>185.09685999481093</v>
+        <v>224.74313437791122</v>
       </c>
       <c r="H14">
-        <v>188.50186730003475</v>
+        <v>242.55901288412761</v>
       </c>
       <c r="I14">
-        <v>193.43577787168928</v>
+        <v>264.965011112875</v>
       </c>
       <c r="J14">
-        <v>200.17076127588214</v>
+        <v>293.10898171681629</v>
       </c>
       <c r="K14">
-        <v>208.91725396535477</v>
+        <v>328.29479357369911</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -954,34 +971,34 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>104.88596108705089</v>
+        <v>106.95803721661521</v>
       </c>
       <c r="C15">
-        <v>199.96345910990959</v>
+        <v>198.70742334613399</v>
       </c>
       <c r="D15">
-        <v>233.77024587841925</v>
+        <v>226.87423284399716</v>
       </c>
       <c r="E15">
-        <v>255.14668401344679</v>
+        <v>241.8341581829641</v>
       </c>
       <c r="F15">
-        <v>275.34416167473529</v>
+        <v>254.85033577288488</v>
       </c>
       <c r="G15">
-        <v>298.00007077694664</v>
+        <v>269.36112064103827</v>
       </c>
       <c r="H15">
-        <v>325.0557823823159</v>
+        <v>286.98317181405781</v>
       </c>
       <c r="I15">
-        <v>358.0192202996738</v>
+        <v>308.85061947609222</v>
       </c>
       <c r="J15">
-        <v>398.45291174139243</v>
+        <v>336.03598227257015</v>
       </c>
       <c r="K15">
-        <v>448.17901949077452</v>
+        <v>369.77477067606827</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -989,34 +1006,34 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-89.816635862660831</v>
+        <v>222.83577662619732</v>
       </c>
       <c r="C16">
-        <v>-160.01886364021343</v>
+        <v>196.90267250131143</v>
       </c>
       <c r="D16">
-        <v>-176.01553765753596</v>
+        <v>179.10269225333374</v>
       </c>
       <c r="E16">
-        <v>-180.56977442590966</v>
+        <v>165.12994923909275</v>
       </c>
       <c r="F16">
-        <v>-182.77108963332881</v>
+        <v>154.04081741993727</v>
       </c>
       <c r="G16">
-        <v>-185.09685999481093</v>
+        <v>145.02349380594751</v>
       </c>
       <c r="H16">
-        <v>-188.50186730003472</v>
+        <v>137.5089363096786</v>
       </c>
       <c r="I16">
-        <v>-193.43577787168928</v>
+        <v>131.09310318991518</v>
       </c>
       <c r="J16">
-        <v>-200.17076127588211</v>
+        <v>125.52941922133077</v>
       </c>
       <c r="K16">
-        <v>-208.91725396535477</v>
+        <v>120.68822301059758</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1024,34 +1041,34 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-77.207782084202478</v>
+        <v>91.608214658365725</v>
       </c>
       <c r="C17">
-        <v>-147.09526393472277</v>
+        <v>95.875283125026442</v>
       </c>
       <c r="D17">
-        <v>-172.40446822957369</v>
+        <v>93.454882803165702</v>
       </c>
       <c r="E17">
-        <v>-188.9652911420512</v>
+        <v>90.1006452997579</v>
       </c>
       <c r="F17">
-        <v>-205.0724897011693</v>
+        <v>87.094646016450881</v>
       </c>
       <c r="G17">
-        <v>-223.4509450374224</v>
+        <v>84.614745486670003</v>
       </c>
       <c r="H17">
-        <v>-245.6721968697762</v>
+        <v>82.630983643950117</v>
       </c>
       <c r="I17">
-        <v>-273.051618562854</v>
+        <v>81.071333303332651</v>
       </c>
       <c r="J17">
-        <v>-306.98331935616932</v>
+        <v>79.856329238042889</v>
       </c>
       <c r="K17">
-        <v>-349.17083605441638</v>
+        <v>78.911935033808575</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1059,34 +1076,34 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>89.816635862660831</v>
+        <v>-60.164867233794752</v>
       </c>
       <c r="C18">
-        <v>160.01886364021343</v>
+        <v>-80.917109120480234</v>
       </c>
       <c r="D18">
-        <v>176.01553765753596</v>
+        <v>-65.414193190893783</v>
       </c>
       <c r="E18">
-        <v>180.56977442590966</v>
+        <v>-42.675084627349847</v>
       </c>
       <c r="F18">
-        <v>182.77108963332881</v>
+        <v>-17.210844021099931</v>
       </c>
       <c r="G18">
-        <v>185.09685999481093</v>
+        <v>10.548773932348297</v>
       </c>
       <c r="H18">
-        <v>188.50186730003472</v>
+        <v>41.192107508078976</v>
       </c>
       <c r="I18">
-        <v>193.43577787168928</v>
+        <v>75.78061524018861</v>
       </c>
       <c r="J18">
-        <v>200.17076127588211</v>
+        <v>115.72957466217127</v>
       </c>
       <c r="K18">
-        <v>208.91725396535477</v>
+        <v>162.88468627159472</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1094,34 +1111,34 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>77.207782084202478</v>
+        <v>-102.02087258393431</v>
       </c>
       <c r="C19">
-        <v>147.09526393472277</v>
+        <v>-201.73119452458332</v>
       </c>
       <c r="D19">
-        <v>172.40446822957369</v>
+        <v>-237.54105643357309</v>
       </c>
       <c r="E19">
-        <v>188.9652911420512</v>
+        <v>-257.86074118537817</v>
       </c>
       <c r="F19">
-        <v>205.0724897011693</v>
+        <v>-274.16014313913661</v>
       </c>
       <c r="G19">
-        <v>223.4509450374224</v>
+        <v>-289.96533549129629</v>
       </c>
       <c r="H19">
-        <v>245.6721968697762</v>
+        <v>-306.90551081638273</v>
       </c>
       <c r="I19">
-        <v>273.051618562854</v>
+        <v>-325.93233180284267</v>
       </c>
       <c r="J19">
-        <v>306.98331935616932</v>
+        <v>-347.72655576071691</v>
       </c>
       <c r="K19">
-        <v>349.17083605441638</v>
+        <v>-372.87433638367878</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1129,34 +1146,34 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>240.46637061407097</v>
+        <v>-152.06449066920666</v>
       </c>
       <c r="C20">
-        <v>218.99837518498657</v>
+        <v>-57.840936863649461</v>
       </c>
       <c r="D20">
-        <v>201.80405667454707</v>
+        <v>-18.826555199533082</v>
       </c>
       <c r="E20">
-        <v>187.1871653464583</v>
+        <v>7.9793669773754754</v>
       </c>
       <c r="F20">
-        <v>174.95279058552282</v>
+        <v>31.857794670917059</v>
       </c>
       <c r="G20">
-        <v>164.55655926570302</v>
+        <v>56.056747567733609</v>
       </c>
       <c r="H20">
-        <v>155.56503608555559</v>
+        <v>82.357781589993863</v>
       </c>
       <c r="I20">
-        <v>147.65839311220512</v>
+        <v>112.02266284815559</v>
       </c>
       <c r="J20">
-        <v>140.62738978066042</v>
+        <v>146.22719358947714</v>
       </c>
       <c r="K20">
-        <v>134.33613291723651</v>
+        <v>186.2434006485735</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1164,34 +1181,34 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>14.959042121405508</v>
+        <v>58.708081940571986</v>
       </c>
       <c r="C21">
-        <v>1.563335791996602</v>
+        <v>145.98818758288274</v>
       </c>
       <c r="D21">
-        <v>-9.3119386725868569</v>
+        <v>182.56905835831341</v>
       </c>
       <c r="E21">
-        <v>-18.627709163925974</v>
+        <v>207.54511158124919</v>
       </c>
       <c r="F21">
-        <v>-26.562602705148013</v>
+        <v>229.56703324473611</v>
       </c>
       <c r="G21">
-        <v>-33.355774793741517</v>
+        <v>251.45424306742467</v>
       </c>
       <c r="H21">
-        <v>-39.193195464082528</v>
+        <v>274.68222077802784</v>
       </c>
       <c r="I21">
-        <v>-44.214949180829109</v>
+        <v>300.34075143357319</v>
       </c>
       <c r="J21">
-        <v>-48.565477995151191</v>
+        <v>329.51171184334845</v>
       </c>
       <c r="K21">
-        <v>-52.407480926660881</v>
+        <v>363.51187601095455</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1199,34 +1216,34 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4.1048372611318982</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-19.980307173535806</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-46.46040402232974</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-72.742716352970163</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-99.996300733191603</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-129.36364574286381</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-162.02859672791783</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-199.28170247356547</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-242.66963396338517</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-294.12099400475256</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1234,79 +1251,187 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>27.678179002848406</v>
+        <v>118.36899933304805</v>
       </c>
       <c r="C23">
-        <v>52.86819517518682</v>
+        <v>216.43437970429312</v>
       </c>
       <c r="D23">
-        <v>61.365777648845551</v>
+        <v>241.96322245431315</v>
       </c>
       <c r="E23">
-        <v>66.181392871395602</v>
+        <v>251.04147448223648</v>
       </c>
       <c r="F23">
-        <v>70.27167197356593</v>
+        <v>255.85295987669872</v>
       </c>
       <c r="G23">
-        <v>74.549125739524271</v>
+        <v>259.72335200780589</v>
       </c>
       <c r="H23">
-        <v>79.383585512539653</v>
+        <v>263.88352758897958</v>
       </c>
       <c r="I23">
-        <v>84.967601736819802</v>
+        <v>268.81478683260178</v>
       </c>
       <c r="J23">
-        <v>91.469592385223123</v>
+        <v>274.62436305756756</v>
       </c>
       <c r="K23">
-        <v>99.008183436358138</v>
+        <v>281.17527032266008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>-87.338829770093227</v>
+      </c>
+      <c r="C24">
+        <v>-161.57593139773635</v>
+      </c>
+      <c r="D24">
+        <v>-184.81904616780113</v>
+      </c>
+      <c r="E24">
+        <v>-198.04422166581543</v>
+      </c>
+      <c r="F24">
+        <v>-210.40671313093816</v>
+      </c>
+      <c r="G24">
+        <v>-224.74313437791122</v>
+      </c>
+      <c r="H24">
+        <v>-242.55901288412761</v>
+      </c>
+      <c r="I24">
+        <v>-264.965011112875</v>
+      </c>
+      <c r="J24">
+        <v>-293.10898171681629</v>
+      </c>
+      <c r="K24">
+        <v>-328.29479357369911</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>-106.95803721661521</v>
+      </c>
+      <c r="C25">
+        <v>-198.70742334613399</v>
+      </c>
+      <c r="D25">
+        <v>-226.87423284399716</v>
+      </c>
+      <c r="E25">
+        <v>-241.8341581829641</v>
+      </c>
+      <c r="F25">
+        <v>-254.85033577288488</v>
+      </c>
+      <c r="G25">
+        <v>-269.36112064103827</v>
+      </c>
+      <c r="H25">
+        <v>-286.98317181405781</v>
+      </c>
+      <c r="I25">
+        <v>-308.85061947609222</v>
+      </c>
+      <c r="J25">
+        <v>-336.03598227257015</v>
+      </c>
+      <c r="K25">
+        <v>-369.77477067606827</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>739.37704082106325</v>
+        <v>-20.351252588754416</v>
+      </c>
+      <c r="C26">
+        <v>-42.046290133530974</v>
+      </c>
+      <c r="D26">
+        <v>-51.150237740273589</v>
+      </c>
+      <c r="E26">
+        <v>-57.232687942828825</v>
+      </c>
+      <c r="F26">
+        <v>-62.643868301377438</v>
+      </c>
+      <c r="G26">
+        <v>-68.164176694933332</v>
+      </c>
+      <c r="H26">
+        <v>-74.135386009166453</v>
+      </c>
+      <c r="I26">
+        <v>-80.74709398860476</v>
+      </c>
+      <c r="J26">
+        <v>-88.173459463108898</v>
+      </c>
+      <c r="K26">
+        <v>-96.540940730804408</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>739.37704082106325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>979.02421184373475</v>
+        <v>18.759214028909501</v>
+      </c>
+      <c r="C27">
+        <v>32.049267496911419</v>
+      </c>
+      <c r="D27">
+        <v>33.902976942461031</v>
+      </c>
+      <c r="E27">
+        <v>33.232456924470519</v>
+      </c>
+      <c r="F27">
+        <v>31.841068546770398</v>
+      </c>
+      <c r="G27">
+        <v>30.186373813847013</v>
+      </c>
+      <c r="H27">
+        <v>28.384823235288657</v>
+      </c>
+      <c r="I27">
+        <v>26.446174719649964</v>
+      </c>
+      <c r="J27">
+        <v>24.333667570392286</v>
+      </c>
+      <c r="K27">
+        <v>21.965134877319834</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>979.02421184373475</v>
-      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>244.21713294014052</v>
+        <v>739.37704082106325</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -1314,7 +1439,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>456.61019502375012</v>
+        <v>739.37704082106325</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1322,7 +1447,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>544.62041067197117</v>
+        <v>979.02421184373475</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1330,7 +1455,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>449.35962324132032</v>
+        <v>979.02421184373475</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1338,7 +1463,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>449.35962324132032</v>
+        <v>244.21713294014052</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1346,7 +1471,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>240.93121079987483</v>
+        <v>456.61019502375012</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1354,6 +1479,38 @@
         <v>34</v>
       </c>
       <c r="B36">
+        <v>544.62041067197117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>449.35962324132032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>449.35962324132032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>240.93121079987483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>106.18496744322998</v>
       </c>
     </row>
